--- a/data/cpd_rcv.xlsx
+++ b/data/cpd_rcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8848259587020649</v>
+        <v>0.9006795195954487</v>
       </c>
       <c r="D2">
-        <v>0.8715354838709677</v>
+        <v>0.03151325806880326</v>
       </c>
       <c r="E2">
-        <v>0.8862349522623496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8759856630824372</v>
+      </c>
+      <c r="F2">
+        <v>0.04952076963298688</v>
+      </c>
+      <c r="G2">
+        <v>0.8870141784820683</v>
+      </c>
+      <c r="H2">
+        <v>0.03257053301693878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.8972271386430679</v>
+        <v>0.9059813527180784</v>
       </c>
       <c r="D3">
-        <v>0.9117290322580643</v>
+        <v>0.03189442994976523</v>
       </c>
       <c r="E3">
-        <v>0.9089954337899544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.9114183307731695</v>
+      </c>
+      <c r="F3">
+        <v>0.0231411056431009</v>
+      </c>
+      <c r="G3">
+        <v>0.9060884070058381</v>
+      </c>
+      <c r="H3">
+        <v>0.02166676614662823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.9388554572271387</v>
+        <v>0.9396886852085966</v>
       </c>
       <c r="D4">
-        <v>0.9470709677419356</v>
+        <v>0.0219441420580556</v>
       </c>
       <c r="E4">
-        <v>0.9472146118721462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.9436251920122889</v>
+      </c>
+      <c r="F4">
+        <v>0.02196728000553226</v>
+      </c>
+      <c r="G4">
+        <v>0.950767306088407</v>
+      </c>
+      <c r="H4">
+        <v>0.01919342084510206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7430835791543757</v>
+        <v>0.747115992414665</v>
       </c>
       <c r="D5">
-        <v>0.6561806451612904</v>
+        <v>0.03050516544368534</v>
       </c>
       <c r="E5">
-        <v>0.6915151515151515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6458269329237072</v>
+      </c>
+      <c r="F5">
+        <v>0.05878843102410158</v>
+      </c>
+      <c r="G5">
+        <v>0.6973227689741451</v>
+      </c>
+      <c r="H5">
+        <v>0.04198481601140375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8777738446411012</v>
+        <v>0.8811551833122628</v>
       </c>
       <c r="D6">
-        <v>0.8522838709677419</v>
+        <v>0.03080224056728806</v>
       </c>
       <c r="E6">
-        <v>0.8735159817351598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8598054275473629</v>
+      </c>
+      <c r="F6">
+        <v>0.05067006027591416</v>
+      </c>
+      <c r="G6">
+        <v>0.8997497914929108</v>
+      </c>
+      <c r="H6">
+        <v>0.02294896883659027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8246371681415929</v>
+        <v>0.8961994310998735</v>
       </c>
       <c r="D7">
-        <v>0.8408903225806451</v>
+        <v>0.02565312876135361</v>
       </c>
       <c r="E7">
-        <v>0.8371357409713575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8791858678955453</v>
+      </c>
+      <c r="F7">
+        <v>0.0410558734383163</v>
+      </c>
+      <c r="G7">
+        <v>0.879674728940784</v>
+      </c>
+      <c r="H7">
+        <v>0.0176100125399712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.7280707964601769</v>
+        <v>0.8988701011378002</v>
       </c>
       <c r="D8">
-        <v>0.6784903225806451</v>
+        <v>0.03434592732462118</v>
       </c>
       <c r="E8">
-        <v>0.7834454130344541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.8848220255653885</v>
-      </c>
-      <c r="D9">
-        <v>0.8618967741935484</v>
-      </c>
-      <c r="E9">
-        <v>0.895354919053549</v>
+        <v>0.8630568356374807</v>
+      </c>
+      <c r="F8">
+        <v>0.04357357507581917</v>
+      </c>
+      <c r="G8">
+        <v>0.89883236030025</v>
+      </c>
+      <c r="H8">
+        <v>0.01964904255532755</v>
       </c>
     </row>
   </sheetData>
